--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo1-Lrp6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H2">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I2">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J2">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N2">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O2">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P2">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q2">
-        <v>6.373409754544222</v>
+        <v>0.3395319827188889</v>
       </c>
       <c r="R2">
-        <v>57.360687790898</v>
+        <v>3.05578784447</v>
       </c>
       <c r="S2">
-        <v>0.05783028012419876</v>
+        <v>0.006851000277701201</v>
       </c>
       <c r="T2">
-        <v>0.06132895290974888</v>
+        <v>0.007122715478470251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H3">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I3">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J3">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O3">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P3">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q3">
-        <v>15.389881861992</v>
+        <v>1.09871012922</v>
       </c>
       <c r="R3">
-        <v>138.508936757928</v>
+        <v>9.88839116298</v>
       </c>
       <c r="S3">
-        <v>0.1396428620524131</v>
+        <v>0.02216952682961664</v>
       </c>
       <c r="T3">
-        <v>0.1480911123481033</v>
+        <v>0.02304878492176277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H4">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I4">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J4">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N4">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O4">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P4">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q4">
-        <v>8.245842452454223</v>
+        <v>0.5577781175011112</v>
       </c>
       <c r="R4">
-        <v>74.21258207208801</v>
+        <v>5.020003057509999</v>
       </c>
       <c r="S4">
-        <v>0.07482013510043639</v>
+        <v>0.01125472188892318</v>
       </c>
       <c r="T4">
-        <v>0.07934667673096091</v>
+        <v>0.01170109160045305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H5">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I5">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J5">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N5">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O5">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P5">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q5">
-        <v>8.182208329525333</v>
+        <v>0.358785488295</v>
       </c>
       <c r="R5">
-        <v>49.093249977152</v>
+        <v>2.15271292977</v>
       </c>
       <c r="S5">
-        <v>0.07424273943686531</v>
+        <v>0.007239493199612091</v>
       </c>
       <c r="T5">
-        <v>0.05248956614695693</v>
+        <v>0.005017744191019003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H6">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I6">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J6">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N6">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O6">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P6">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q6">
-        <v>9.617860318938224</v>
+        <v>0.7802500854200001</v>
       </c>
       <c r="R6">
-        <v>86.56074287044402</v>
+        <v>7.022250768780001</v>
       </c>
       <c r="S6">
-        <v>0.08726938606811553</v>
+        <v>0.01574371141441052</v>
       </c>
       <c r="T6">
-        <v>0.09254909464625918</v>
+        <v>0.01636811741855856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.532719</v>
       </c>
       <c r="I7">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J7">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N7">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O7">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P7">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q7">
-        <v>6.737843112428777</v>
+        <v>5.027845234731778</v>
       </c>
       <c r="R7">
-        <v>60.64058801185899</v>
+        <v>45.250607112586</v>
       </c>
       <c r="S7">
-        <v>0.06113703176652642</v>
+        <v>0.1014507346953085</v>
       </c>
       <c r="T7">
-        <v>0.06483575964353966</v>
+        <v>0.1054743379106849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,10 +918,10 @@
         <v>1.532719</v>
       </c>
       <c r="I8">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J8">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O8">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P8">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q8">
         <v>16.269879624636</v>
@@ -948,10 +948,10 @@
         <v>146.428916621724</v>
       </c>
       <c r="S8">
-        <v>0.1476276800826811</v>
+        <v>0.3282899859210974</v>
       </c>
       <c r="T8">
-        <v>0.1565590037005145</v>
+        <v>0.3413101838220309</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -980,10 +980,10 @@
         <v>1.532719</v>
       </c>
       <c r="I9">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J9">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N9">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O9">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P9">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q9">
-        <v>8.717342037333779</v>
+        <v>8.259669759704224</v>
       </c>
       <c r="R9">
-        <v>78.456078336004</v>
+        <v>74.337027837338</v>
       </c>
       <c r="S9">
-        <v>0.07909837141696803</v>
+        <v>0.1666617658940964</v>
       </c>
       <c r="T9">
-        <v>0.08388374196788953</v>
+        <v>0.1732716817231516</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>1.532719</v>
       </c>
       <c r="I10">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J10">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N10">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O10">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P10">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q10">
-        <v>8.650069297402666</v>
+        <v>5.312954300121</v>
       </c>
       <c r="R10">
-        <v>51.900415784416</v>
+        <v>31.877725800726</v>
       </c>
       <c r="S10">
-        <v>0.07848796010736021</v>
+        <v>0.1072036015401792</v>
       </c>
       <c r="T10">
-        <v>0.05549093426567864</v>
+        <v>0.07430357817220863</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>1.532719</v>
       </c>
       <c r="I11">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J11">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N11">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O11">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P11">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q11">
-        <v>10.16781227035578</v>
+        <v>11.554071114196</v>
       </c>
       <c r="R11">
-        <v>91.51031043320201</v>
+        <v>103.986640027764</v>
       </c>
       <c r="S11">
-        <v>0.09225947404773287</v>
+        <v>0.2331354583390549</v>
       </c>
       <c r="T11">
-        <v>0.09784107784364639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.119852</v>
-      </c>
-      <c r="H12">
-        <v>0.359556</v>
-      </c>
-      <c r="I12">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J12">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>13.18802033333333</v>
-      </c>
-      <c r="N12">
-        <v>39.564061</v>
-      </c>
-      <c r="O12">
-        <v>0.1333092666742473</v>
-      </c>
-      <c r="P12">
-        <v>0.1413743409290003</v>
-      </c>
-      <c r="Q12">
-        <v>1.580610612990667</v>
-      </c>
-      <c r="R12">
-        <v>14.225495516916</v>
-      </c>
-      <c r="S12">
-        <v>0.01434195478352208</v>
-      </c>
-      <c r="T12">
-        <v>0.01520962837571175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.119852</v>
-      </c>
-      <c r="H13">
-        <v>0.359556</v>
-      </c>
-      <c r="I13">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J13">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>31.845132</v>
-      </c>
-      <c r="N13">
-        <v>95.53539599999999</v>
-      </c>
-      <c r="O13">
-        <v>0.3219020813407859</v>
-      </c>
-      <c r="P13">
-        <v>0.3413768279472386</v>
-      </c>
-      <c r="Q13">
-        <v>3.816702760464</v>
-      </c>
-      <c r="R13">
-        <v>34.35032484417599</v>
-      </c>
-      <c r="S13">
-        <v>0.03463153920569164</v>
-      </c>
-      <c r="T13">
-        <v>0.0367267118986208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.119852</v>
-      </c>
-      <c r="H14">
-        <v>0.359556</v>
-      </c>
-      <c r="I14">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J14">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>17.06250533333333</v>
-      </c>
-      <c r="N14">
-        <v>51.187516</v>
-      </c>
-      <c r="O14">
-        <v>0.1724739586473769</v>
-      </c>
-      <c r="P14">
-        <v>0.1829084566999494</v>
-      </c>
-      <c r="Q14">
-        <v>2.044975389210667</v>
-      </c>
-      <c r="R14">
-        <v>18.404778502896</v>
-      </c>
-      <c r="S14">
-        <v>0.01855545212997252</v>
-      </c>
-      <c r="T14">
-        <v>0.01967803800109902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.119852</v>
-      </c>
-      <c r="H15">
-        <v>0.359556</v>
-      </c>
-      <c r="I15">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J15">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>16.930832</v>
-      </c>
-      <c r="N15">
-        <v>33.861664</v>
-      </c>
-      <c r="O15">
-        <v>0.171142957097216</v>
-      </c>
-      <c r="P15">
-        <v>0.1209979539451033</v>
-      </c>
-      <c r="Q15">
-        <v>2.029194076864</v>
-      </c>
-      <c r="R15">
-        <v>12.175164461184</v>
-      </c>
-      <c r="S15">
-        <v>0.01841225755299047</v>
-      </c>
-      <c r="T15">
-        <v>0.01301745353246769</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.119852</v>
-      </c>
-      <c r="H16">
-        <v>0.359556</v>
-      </c>
-      <c r="I16">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J16">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>19.90151933333334</v>
-      </c>
-      <c r="N16">
-        <v>59.70455800000001</v>
-      </c>
-      <c r="O16">
-        <v>0.2011717362403739</v>
-      </c>
-      <c r="P16">
-        <v>0.2133424204787085</v>
-      </c>
-      <c r="Q16">
-        <v>2.385236895138667</v>
-      </c>
-      <c r="R16">
-        <v>21.467132056248</v>
-      </c>
-      <c r="S16">
-        <v>0.02164287612452552</v>
-      </c>
-      <c r="T16">
-        <v>0.02295224798880298</v>
+        <v>0.2423817647616604</v>
       </c>
     </row>
   </sheetData>
